--- a/spreadsheet/web_scrape_kettle.xlsx
+++ b/spreadsheet/web_scrape_kettle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamlam/Desktop/FYP/ObjectPropertiesInformationExtraction/spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9A3570-22A2-9843-AC73-9B15DEB51F96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFC1E42-B4F8-A848-A40A-16BF28161021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="505">
   <si>
     <t xml:space="preserve">Russell Hobbs 23910 Adventure Brushed Stainless Steel Electric Kettle, Open Handle, 3000 W, 1.7 Litre
 Brand Russell Hobbs
@@ -7361,8 +7361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="E313" sqref="E313"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9460,6 +9460,9 @@
       <c r="D123" s="1" t="s">
         <v>380</v>
       </c>
+      <c r="E123" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="124" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">

--- a/spreadsheet/web_scrape_kettle.xlsx
+++ b/spreadsheet/web_scrape_kettle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamlam/Desktop/FYP/ObjectPropertiesInformationExtraction/spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8081BC-DD8C-8D41-9973-43FAF2A840D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0321B9C4-255F-B34C-9E3C-FB0471C61CFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="35780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="729">
   <si>
     <t xml:space="preserve">Russell Hobbs 23910 Adventure Brushed Stainless Steel Electric Kettle, Open Handle, 3000 W, 1.7 Litre
 Brand Russell Hobbs
@@ -7502,9 +7502,6 @@
     <t>14.2</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>14.3</t>
   </si>
   <si>
@@ -7629,9 +7626,6 @@
   </si>
   <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>260</t>
   </si>
   <si>
     <t>Input</t>
@@ -8040,8 +8034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="C265" sqref="C265"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="I311" sqref="I311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8058,28 +8052,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -8261,7 +8255,7 @@
         <v>504</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
@@ -8287,7 +8281,7 @@
         <v>633</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="365" x14ac:dyDescent="0.2">
@@ -8443,7 +8437,7 @@
         <v>539</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -8599,7 +8593,7 @@
         <v>634</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="395" x14ac:dyDescent="0.2">
@@ -8651,7 +8645,7 @@
         <v>539</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="320" x14ac:dyDescent="0.2">
@@ -8833,7 +8827,7 @@
         <v>548</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="395" x14ac:dyDescent="0.2">
@@ -8911,7 +8905,7 @@
         <v>636</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -9015,7 +9009,7 @@
         <v>570</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="288" x14ac:dyDescent="0.2">
@@ -9171,7 +9165,7 @@
         <v>514</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
@@ -9353,7 +9347,7 @@
         <v>615</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -9405,7 +9399,7 @@
         <v>620</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="335" x14ac:dyDescent="0.2">
@@ -9509,7 +9503,7 @@
         <v>575</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
@@ -9587,7 +9581,7 @@
         <v>639</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="272" x14ac:dyDescent="0.2">
@@ -9717,7 +9711,7 @@
         <v>543</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="365" x14ac:dyDescent="0.2">
@@ -9743,7 +9737,7 @@
         <v>532</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="320" x14ac:dyDescent="0.2">
@@ -9873,7 +9867,7 @@
         <v>535</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -10055,7 +10049,7 @@
         <v>523</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
@@ -10081,7 +10075,7 @@
         <v>570</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="272" x14ac:dyDescent="0.2">
@@ -10211,7 +10205,7 @@
         <v>645</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="380" x14ac:dyDescent="0.2">
@@ -10237,7 +10231,7 @@
         <v>501</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="256" x14ac:dyDescent="0.2">
@@ -10263,7 +10257,7 @@
         <v>646</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="380" x14ac:dyDescent="0.2">
@@ -10393,7 +10387,7 @@
         <v>587</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
@@ -10471,7 +10465,7 @@
         <v>543</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -10523,7 +10517,7 @@
         <v>624</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="320" x14ac:dyDescent="0.2">
@@ -10705,7 +10699,7 @@
         <v>648</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="395" x14ac:dyDescent="0.2">
@@ -10757,7 +10751,7 @@
         <v>649</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="288" x14ac:dyDescent="0.2">
@@ -10783,7 +10777,7 @@
         <v>650</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
@@ -10835,7 +10829,7 @@
         <v>577</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="380" x14ac:dyDescent="0.2">
@@ -10913,7 +10907,7 @@
         <v>651</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="272" x14ac:dyDescent="0.2">
@@ -11303,7 +11297,7 @@
         <v>526</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
@@ -11381,7 +11375,7 @@
         <v>608</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
@@ -11433,7 +11427,7 @@
         <v>503</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="335" x14ac:dyDescent="0.2">
@@ -11641,7 +11635,7 @@
         <v>541</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="288" x14ac:dyDescent="0.2">
@@ -11667,7 +11661,7 @@
         <v>620</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="365" x14ac:dyDescent="0.2">
@@ -11823,7 +11817,7 @@
         <v>580</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="288" x14ac:dyDescent="0.2">
@@ -11927,7 +11921,7 @@
         <v>552</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="320" x14ac:dyDescent="0.2">
@@ -12187,7 +12181,7 @@
         <v>660</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="272" x14ac:dyDescent="0.2">
@@ -12213,7 +12207,7 @@
         <v>661</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
@@ -12291,7 +12285,7 @@
         <v>648</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="256" x14ac:dyDescent="0.2">
@@ -12343,7 +12337,7 @@
         <v>578</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="272" x14ac:dyDescent="0.2">
@@ -12473,7 +12467,7 @@
         <v>519</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="395" x14ac:dyDescent="0.2">
@@ -12499,7 +12493,7 @@
         <v>620</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="395" x14ac:dyDescent="0.2">
@@ -12551,7 +12545,7 @@
         <v>662</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -13097,7 +13091,7 @@
         <v>666</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="288" x14ac:dyDescent="0.2">
@@ -13175,7 +13169,7 @@
         <v>532</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -13435,7 +13429,7 @@
         <v>518</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -13669,7 +13663,7 @@
         <v>515</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="304" x14ac:dyDescent="0.2">
@@ -13851,7 +13845,7 @@
         <v>543</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="288" x14ac:dyDescent="0.2">
@@ -13903,7 +13897,7 @@
         <v>670</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="176" x14ac:dyDescent="0.2">
@@ -13929,7 +13923,7 @@
         <v>620</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -14189,7 +14183,7 @@
         <v>617</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="365" x14ac:dyDescent="0.2">
@@ -14267,7 +14261,7 @@
         <v>672</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -14319,7 +14313,7 @@
         <v>673</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="365" x14ac:dyDescent="0.2">
@@ -14475,7 +14469,7 @@
         <v>575</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="395" x14ac:dyDescent="0.2">
@@ -14761,7 +14755,7 @@
         <v>620</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="395" x14ac:dyDescent="0.2">
@@ -14839,7 +14833,7 @@
         <v>562</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="365" x14ac:dyDescent="0.2">
@@ -14865,7 +14859,7 @@
         <v>533</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="365" x14ac:dyDescent="0.2">
@@ -15047,7 +15041,7 @@
         <v>674</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="320" x14ac:dyDescent="0.2">
@@ -15541,7 +15535,7 @@
         <v>575</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="395" x14ac:dyDescent="0.2">
@@ -15593,7 +15587,7 @@
         <v>565</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="350" x14ac:dyDescent="0.2">
@@ -15697,7 +15691,7 @@
         <v>677</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="192" x14ac:dyDescent="0.2">
@@ -15827,7 +15821,7 @@
         <v>518</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="208" x14ac:dyDescent="0.2">
@@ -15879,7 +15873,7 @@
         <v>554</v>
       </c>
       <c r="H301" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="192" x14ac:dyDescent="0.2">
@@ -15983,7 +15977,7 @@
         <v>677</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="365" x14ac:dyDescent="0.2">
@@ -16132,14 +16126,14 @@
       <c r="E311" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F311" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="G311" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="H311" s="2" t="s">
-        <v>722</v>
+      <c r="F311" s="2">
+        <v>3</v>
+      </c>
+      <c r="G311" s="2">
+        <v>30</v>
+      </c>
+      <c r="H311" s="2">
+        <v>26</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="350" x14ac:dyDescent="0.2">
